--- a/Simulador.xlsx
+++ b/Simulador.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jrod\Desktop\Planilhas Excel\Cálculo do IR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103DB831-3F27-498B-A378-061127810F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C818D2-CAA0-47BC-ABD4-12596052D0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{A0241AA0-5440-4A50-8F42-87BD0DBFD361}"/>
   </bookViews>
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>Tabela progressiva do IR - Ano 2024</t>
   </si>
@@ -287,10 +287,13 @@
     <t>Tem que coincidir com o valor calculado no contracheque</t>
   </si>
   <si>
-    <t>Revisão 7- 13/05/2025</t>
-  </si>
-  <si>
     <t>Revisão 7 - 13/05/2025</t>
+  </si>
+  <si>
+    <t>Contribuição prev. considerada</t>
+  </si>
+  <si>
+    <t>Revisão 8- 04/08/2025</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -584,6 +587,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1321,7 +1327,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D8 B4:B7 A5:A8 L8"/>
+      <selection activeCell="J1" sqref="J1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1351,7 @@
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
       <c r="E1" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
@@ -1849,7 +1855,6 @@
       <c r="S22" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/phDGtGMUS+q3ZJURz0xP4HeMlhri5TWVj0fAdHv6ZW7MQ3EqR8GH4YV0AYRWXF/ir5kd225zkwfRJwMlcfqDg==" saltValue="30jz0Fpxd99E2he9iCzmng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="I5:J5"/>
@@ -1873,7 +1878,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,6 +1890,7 @@
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="12" max="12" width="11.140625" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
     <col min="19" max="19" width="2.28515625" customWidth="1"/>
     <col min="21" max="21" width="13.7109375" customWidth="1"/>
   </cols>
@@ -1897,7 +1903,7 @@
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
       <c r="E1" s="32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
@@ -1999,7 +2005,8 @@
       <c r="J5" s="23"/>
       <c r="K5" s="4"/>
       <c r="L5" s="15">
-        <v>0</v>
+        <f>4472.68+1118.17</f>
+        <v>5590.85</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2031,13 +2038,18 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="15">
-        <v>0</v>
+        <v>592.29999999999995</v>
       </c>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="N6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="24"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="7">
+        <f>IF(L6&lt;=607.2,607.2,L6)</f>
+        <v>607.20000000000005</v>
+      </c>
       <c r="R6" s="4"/>
       <c r="S6" s="9"/>
     </row>
@@ -2098,8 +2110,8 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="7">
-        <f>L5-L6-P7</f>
-        <v>0</v>
+        <f>L5-Q6-P7</f>
+        <v>4983.6500000000005</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -2118,7 +2130,7 @@
       </c>
       <c r="J9" s="7">
         <f>IF(L8&lt;=$B$4,0,IF(AND(L8&gt;=$A$5,L8&lt;=$B$5),TRUNC(L8*$C$5/100-$D$5,2),IF(AND(L8&gt;=$A$6,L8&lt;=$B$6),TRUNC(L8*$C$6/100-$D$6,2),IF(AND(L8&gt;=$A$7,L8&lt;=$B$7),TRUNC(L8*$C$7/100-$D$7,2),IF(L8&gt;=$A$8,TRUNC(L8*$C$8/100-$D$8,2),"")))))</f>
-        <v>0</v>
+        <v>461.77</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="5" t="s">
@@ -2150,7 +2162,7 @@
       </c>
       <c r="J10" s="7">
         <f>L5-L6-J9</f>
-        <v>0</v>
+        <v>4536.7800000000007</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
@@ -2204,7 +2216,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="15">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
@@ -2212,11 +2224,11 @@
       </c>
       <c r="M13" s="7">
         <f>TRUNC(J13*0.11,2)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="18" t="str">
-        <f>IF(AND(TRUNC(J13*0.11,2)+L6&lt;607.2,J13&lt;&gt;"",J13&gt;0),607.2,IF(AND(TRUNC(J13*0.11,2)+L6&gt;=607.2,J13&lt;&gt;"",J13&gt;0),TRUNC(J13*0.11,2)+L6,""))</f>
-        <v/>
+        <v>165</v>
+      </c>
+      <c r="N13" s="18">
+        <f>IF(AND(TRUNC(J13*0.11,2)+Q6&lt;607.2,J13&lt;&gt;"",J13&gt;0),607.2,IF(AND(TRUNC(J13*0.11,2)+Q6&gt;=607.2,J13&lt;&gt;"",J13&gt;0),TRUNC(J13*0.11,2)+Q6,""))</f>
+        <v>772.2</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>15</v>
@@ -2224,7 +2236,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="7">
         <f>TRUNC(J13*0.2,2)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="9"/>
@@ -2254,7 +2266,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="7">
         <f>L5+J13</f>
-        <v>0</v>
+        <v>7090.85</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -2272,9 +2284,9 @@
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="7" t="str">
+      <c r="L16" s="7">
         <f>N13</f>
-        <v/>
+        <v>772.2</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2317,9 +2329,9 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="7" t="str">
+      <c r="L18" s="7">
         <f>IF(AND(J13&lt;&gt;"",J13&lt;&gt;0),L15-L16-P17,"")</f>
-        <v/>
+        <v>6318.6500000000005</v>
       </c>
       <c r="M18" s="17"/>
       <c r="N18" s="19"/>
@@ -2339,7 +2351,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="7">
         <f>J13-M13</f>
-        <v>0</v>
+        <v>1335</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>18</v>
@@ -2357,9 +2369,9 @@
       <c r="I20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="7" t="str">
+      <c r="J20" s="7">
         <f>IF(AND(J13&lt;&gt;"",J13&lt;&gt;0),IF(L18&lt;=$B$4,0,IF(AND(L18&gt;=$A$5,L18&lt;=$B$5),TRUNC(L18*$C$5/100-$D$5,2),IF(AND(L18&gt;=$A$6,L18&lt;=$B$6),TRUNC(L18*$C$6/100-$D$6,2),IF(AND(L18&gt;=$A$7,L18&lt;=$B$7),TRUNC(L18*$C$7/100-$D$7,2),IF(L18&gt;=$A$8,TRUNC(L18*$C$8/100-$D$8,2),"")))))-J9,"")</f>
-        <v/>
+        <v>367.12</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="5" t="s">
@@ -2407,8 +2419,8 @@
       <c r="S22" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="p+rNO5d7HVNPors6xL/sUgFU1GsKhOiuAGtwWvXi89mP/zO6OX3/vUCvPAg+eNEKXjiRl7mby6t9byeOygiJZA==" saltValue="jCCLtYz2RCEedivZGeDhjw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="9">
+  <sheetProtection algorithmName="SHA-512" hashValue="QCabk+zMjoVCf+1kFQbYq8Z5FQVwta23oB9FVWDBVSpHE6un2030JYTXrxm18uJx3gHiB7rI3DTMVJFVIzQ7lQ==" saltValue="0b6vy9cZLVBqYgW7qhK4TA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="10">
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A1:D1"/>
@@ -2418,6 +2430,7 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="H11:R11"/>
     <mergeCell ref="E1:I1"/>
+    <mergeCell ref="N6:P6"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.31496062992125984" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/Simulador.xlsx
+++ b/Simulador.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jrod\Desktop\Planilhas Excel\Cálculo do IR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jrod\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C818D2-CAA0-47BC-ABD4-12596052D0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218791BB-B53B-4205-8E25-683DEDFF0CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{A0241AA0-5440-4A50-8F42-87BD0DBFD361}"/>
   </bookViews>
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>Tabela progressiva do IR - Ano 2024</t>
   </si>
@@ -293,7 +293,13 @@
     <t>Contribuição prev. considerada</t>
   </si>
   <si>
-    <t>Revisão 8- 04/08/2025</t>
+    <t>Revisão 9- 26/08/2025</t>
+  </si>
+  <si>
+    <t>Tem que coincidir com o valor calculado no contracheque,</t>
+  </si>
+  <si>
+    <t>podendo ocorrer diferença de um centavo devido a arredondamentos!</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1884,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,8 +2011,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="4"/>
       <c r="L5" s="15">
-        <f>4472.68+1118.17</f>
-        <v>5590.85</v>
+        <v>4000</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2038,7 +2043,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="15">
-        <v>592.29999999999995</v>
+        <v>440</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="24" t="s">
@@ -2047,8 +2052,8 @@
       <c r="O6" s="24"/>
       <c r="P6" s="35"/>
       <c r="Q6" s="7">
-        <f>IF(L6&lt;=607.2,607.2,L6)</f>
-        <v>607.20000000000005</v>
+        <f>IF(L6+P7&lt;=607.2,607.2,L6+P7)</f>
+        <v>629.59</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="9"/>
@@ -2075,7 +2080,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>10</v>
@@ -2084,7 +2089,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="7">
         <f>L7*D10</f>
-        <v>0</v>
+        <v>189.59</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -2110,8 +2115,8 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="7">
-        <f>L5-Q6-P7</f>
-        <v>4983.6500000000005</v>
+        <f>IF(AND(L5&gt;0,L6&gt;0),L5-Q6,"")</f>
+        <v>3370.41</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -2130,11 +2135,11 @@
       </c>
       <c r="J9" s="7">
         <f>IF(L8&lt;=$B$4,0,IF(AND(L8&gt;=$A$5,L8&lt;=$B$5),TRUNC(L8*$C$5/100-$D$5,2),IF(AND(L8&gt;=$A$6,L8&lt;=$B$6),TRUNC(L8*$C$6/100-$D$6,2),IF(AND(L8&gt;=$A$7,L8&lt;=$B$7),TRUNC(L8*$C$7/100-$D$7,2),IF(L8&gt;=$A$8,TRUNC(L8*$C$8/100-$D$8,2),"")))))</f>
-        <v>461.77</v>
+        <v>111.4</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2162,10 +2167,12 @@
       </c>
       <c r="J10" s="7">
         <f>L5-L6-J9</f>
-        <v>4536.7800000000007</v>
+        <v>3448.6</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -2216,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="15">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
@@ -2224,11 +2231,11 @@
       </c>
       <c r="M13" s="7">
         <f>TRUNC(J13*0.11,2)</f>
-        <v>165</v>
-      </c>
-      <c r="N13" s="18">
+        <v>0</v>
+      </c>
+      <c r="N13" s="18" t="str">
         <f>IF(AND(TRUNC(J13*0.11,2)+Q6&lt;607.2,J13&lt;&gt;"",J13&gt;0),607.2,IF(AND(TRUNC(J13*0.11,2)+Q6&gt;=607.2,J13&lt;&gt;"",J13&gt;0),TRUNC(J13*0.11,2)+Q6,""))</f>
-        <v>772.2</v>
+        <v/>
       </c>
       <c r="O13" s="4" t="s">
         <v>15</v>
@@ -2236,7 +2243,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="7">
         <f>TRUNC(J13*0.2,2)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="9"/>
@@ -2266,7 +2273,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="7">
         <f>L5+J13</f>
-        <v>7090.85</v>
+        <v>4000</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -2284,9 +2291,9 @@
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="7">
+      <c r="L16" s="7" t="str">
         <f>N13</f>
-        <v>772.2</v>
+        <v/>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2306,7 +2313,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="8">
         <f>L7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>10</v>
@@ -2315,7 +2322,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="7">
         <f>L17*D10</f>
-        <v>0</v>
+        <v>189.59</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -2329,9 +2336,9 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="7">
+      <c r="L18" s="7" t="str">
         <f>IF(AND(J13&lt;&gt;"",J13&lt;&gt;0),L15-L16-P17,"")</f>
-        <v>6318.6500000000005</v>
+        <v/>
       </c>
       <c r="M18" s="17"/>
       <c r="N18" s="19"/>
@@ -2351,7 +2358,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="7">
         <f>J13-M13</f>
-        <v>1335</v>
+        <v>0</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>18</v>
@@ -2369,9 +2376,9 @@
       <c r="I20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="7" t="str">
         <f>IF(AND(J13&lt;&gt;"",J13&lt;&gt;0),IF(L18&lt;=$B$4,0,IF(AND(L18&gt;=$A$5,L18&lt;=$B$5),TRUNC(L18*$C$5/100-$D$5,2),IF(AND(L18&gt;=$A$6,L18&lt;=$B$6),TRUNC(L18*$C$6/100-$D$6,2),IF(AND(L18&gt;=$A$7,L18&lt;=$B$7),TRUNC(L18*$C$7/100-$D$7,2),IF(L18&gt;=$A$8,TRUNC(L18*$C$8/100-$D$8,2),"")))))-J9,"")</f>
-        <v>367.12</v>
+        <v/>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="5" t="s">
@@ -2419,7 +2426,7 @@
       <c r="S22" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QCabk+zMjoVCf+1kFQbYq8Z5FQVwta23oB9FVWDBVSpHE6un2030JYTXrxm18uJx3gHiB7rI3DTMVJFVIzQ7lQ==" saltValue="0b6vy9cZLVBqYgW7qhK4TA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MxsSIw6AmUf68gCR3MJpP6+AYLKslhUk+MaNo8MwGhv+UxY//nrqt05GlP12FnkRas8EnG3NHagm/QbuBFCLTg==" saltValue="sC2QcJMSLk1DEp2KxpTGSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>

--- a/Simulador.xlsx
+++ b/Simulador.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jrod\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jrod\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218791BB-B53B-4205-8E25-683DEDFF0CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F6FC7-BE1A-4EDD-ACFD-643BFEC99DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{A0241AA0-5440-4A50-8F42-87BD0DBFD361}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulador  IR 2024" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>Jrod</author>
   </authors>
   <commentList>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{71146E18-BB5C-49D4-AD4A-E55E5D6B77CA}">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{8D9879A5-055C-400D-90FE-A9D916D8CECF}">
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{0798C3CF-028D-4BEF-9800-4A9AB486CE89}">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
     <author>Jrod</author>
   </authors>
   <commentList>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{375932FC-1F4D-4CFF-A197-A89230B46168}">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{EBE1178E-97A3-4C4F-B8D3-DC39C18DE64C}">
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{7EB4565E-8DD6-4AD3-B509-6DF41FEBD2AD}">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -196,12 +196,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="I21" authorId="0" shapeId="0" xr:uid="{354C0ED8-C217-4CD8-8B00-90DD09351D44}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jrod:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Somente se os dados de remuneração e contribuição do servidor estiverem zerados. </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Tabela progressiva do IR - Ano 2024</t>
   </si>
@@ -293,13 +317,25 @@
     <t>Contribuição prev. considerada</t>
   </si>
   <si>
-    <t>Revisão 9- 26/08/2025</t>
-  </si>
-  <si>
     <t>Tem que coincidir com o valor calculado no contracheque,</t>
   </si>
   <si>
     <t>podendo ocorrer diferença de um centavo devido a arredondamentos!</t>
+  </si>
+  <si>
+    <t>Revisão 11- 02/09/2025</t>
+  </si>
+  <si>
+    <t>Desconto simplificado</t>
+  </si>
+  <si>
+    <t>Valor do IR (apenas para colaborar externo):</t>
+  </si>
+  <si>
+    <t>Valor do IR (para servidores):</t>
+  </si>
+  <si>
+    <t>Simulador IR do contracheque do servidor (preencher somente as células azuis):</t>
   </si>
 </sst>
 </file>
@@ -309,7 +345,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +416,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.79998168889431442"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -523,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -597,6 +640,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,10 +924,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -895,8 +948,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6438900" y="3743325"/>
-          <a:ext cx="590550" cy="9525"/>
+          <a:off x="6276975" y="3752850"/>
+          <a:ext cx="752475" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -931,7 +984,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:colOff>95251</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>47598</xdr:rowOff>
     </xdr:to>
@@ -1008,6 +1061,59 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector de Seta Reta 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82487BC-7945-4639-85D8-60BD80493A9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134225" y="3933825"/>
+          <a:ext cx="609600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1329,7 +1435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC2B736-74B3-41A3-949E-468D67D9855D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1880,11 +1986,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BEF21E-A034-4D63-8D26-9872FDFC0E0E}">
-  <dimension ref="A1:U22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,11 +1998,14 @@
     <col min="1" max="4" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="0.140625" customWidth="1"/>
     <col min="7" max="7" width="2.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
     <col min="12" max="12" width="11.140625" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1"/>
     <col min="19" max="19" width="2.28515625" customWidth="1"/>
     <col min="21" max="21" width="13.7109375" customWidth="1"/>
   </cols>
@@ -1909,7 +2018,7 @@
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
       <c r="E1" s="32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
@@ -1949,7 +2058,7 @@
       <c r="E3" s="10"/>
       <c r="G3" s="9"/>
       <c r="H3" s="26" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
@@ -2011,7 +2120,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="4"/>
       <c r="L5" s="15">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2043,7 +2152,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="15">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="24" t="s">
@@ -2052,8 +2161,8 @@
       <c r="O6" s="24"/>
       <c r="P6" s="35"/>
       <c r="Q6" s="7">
-        <f>IF(L6+P7&lt;=607.2,607.2,L6+P7)</f>
-        <v>629.59</v>
+        <f>IF(L6+P7&lt;C11,C11,L6+P7)</f>
+        <v>607.20000000000005</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="9"/>
@@ -2080,7 +2189,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>10</v>
@@ -2089,7 +2198,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="7">
         <f>L7*D10</f>
-        <v>189.59</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -2114,9 +2223,9 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="7">
+      <c r="L8" s="7" t="str">
         <f>IF(AND(L5&gt;0,L6&gt;0),L5-Q6,"")</f>
-        <v>3370.41</v>
+        <v/>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -2133,13 +2242,13 @@
       <c r="I9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="7" t="e">
         <f>IF(L8&lt;=$B$4,0,IF(AND(L8&gt;=$A$5,L8&lt;=$B$5),TRUNC(L8*$C$5/100-$D$5,2),IF(AND(L8&gt;=$A$6,L8&lt;=$B$6),TRUNC(L8*$C$6/100-$D$6,2),IF(AND(L8&gt;=$A$7,L8&lt;=$B$7),TRUNC(L8*$C$7/100-$D$7,2),IF(L8&gt;=$A$8,TRUNC(L8*$C$8/100-$D$8,2),"")))))</f>
-        <v>111.4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2165,13 +2274,13 @@
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="7" t="e">
         <f>L5-L6-J9</f>
-        <v>3448.6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -2182,6 +2291,13 @@
       <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="2">
+        <v>607.20000000000005</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="26" t="s">
         <v>22</v>
@@ -2234,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="18" t="str">
-        <f>IF(AND(TRUNC(J13*0.11,2)+Q6&lt;607.2,J13&lt;&gt;"",J13&gt;0),607.2,IF(AND(TRUNC(J13*0.11,2)+Q6&gt;=607.2,J13&lt;&gt;"",J13&gt;0),TRUNC(J13*0.11,2)+Q6,""))</f>
+        <f>IF(AND(TRUNC(J13*0.11,2)+Q6&lt;C11,J13&lt;&gt;"",J13&gt;0),C11,IF(AND(TRUNC(J13*0.11,2)+Q6&gt;=C11,J13&lt;&gt;"",J13&gt;0),TRUNC(J13*0.11,2)+Q6,""))</f>
         <v/>
       </c>
       <c r="O13" s="4" t="s">
@@ -2273,7 +2389,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="7">
         <f>L5+J13</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -2291,9 +2407,9 @@
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="7" t="str">
-        <f>N13</f>
-        <v/>
+      <c r="L16" s="7">
+        <f>IF(L6+M13&lt;C11,C11,L6+M13)</f>
+        <v>607.20000000000005</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2313,7 +2429,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="8">
         <f>L7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>10</v>
@@ -2322,7 +2438,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="7">
         <f>L17*D10</f>
-        <v>189.59</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -2373,18 +2489,18 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G20" s="9"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="7" t="str">
+      <c r="I20" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="7" t="str">
         <f>IF(AND(J13&lt;&gt;"",J13&lt;&gt;0),IF(L18&lt;=$B$4,0,IF(AND(L18&gt;=$A$5,L18&lt;=$B$5),TRUNC(L18*$C$5/100-$D$5,2),IF(AND(L18&gt;=$A$6,L18&lt;=$B$6),TRUNC(L18*$C$6/100-$D$6,2),IF(AND(L18&gt;=$A$7,L18&lt;=$B$7),TRUNC(L18*$C$7/100-$D$7,2),IF(L18&gt;=$A$8,TRUNC(L18*$C$8/100-$D$8,2),"")))))-J9,"")</f>
         <v/>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="5" t="s">
+      <c r="M20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -2398,13 +2514,21 @@
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="I21" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="37" t="str">
+        <f>IF(AND(L5=0,L6=0),N21,"")</f>
+        <v/>
+      </c>
+      <c r="N21" s="39" t="str">
+        <f>IF(AND(J13&lt;&gt;"",J13&lt;&gt;0),IF(L18&lt;=$B$4,0,IF(AND(L18&gt;=$A$5,L18&lt;=$B$5),TRUNC(L18*$C$5/100-$D$5,2),IF(AND(L18&gt;=$A$6,L18&lt;=$B$6),TRUNC(L18*$C$6/100-$D$6,2),IF(AND(L18&gt;=$A$7,L18&lt;=$B$7),TRUNC(L18*$C$7/100-$D$7,2),IF(L18&gt;=$A$8,TRUNC(L18*$C$8/100-$D$8,2),""))))),"")</f>
+        <v/>
+      </c>
+      <c r="O21" s="5"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -2425,9 +2549,14 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L23" s="38"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MxsSIw6AmUf68gCR3MJpP6+AYLKslhUk+MaNo8MwGhv+UxY//nrqt05GlP12FnkRas8EnG3NHagm/QbuBFCLTg==" saltValue="sC2QcJMSLk1DEp2KxpTGSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="10">
+  <sheetProtection algorithmName="SHA-512" hashValue="x7JJkguB6UZVGC3Lj2WQNLl4FsM4bipS5b/ZIjcYzCQuE+40nmAmkwhmmfLXiToBS/3uSI6wGRYExV6b0qV67A==" saltValue="jDnFHnL15opEw40/yMLJQA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="13">
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A1:D1"/>
@@ -2438,6 +2567,7 @@
     <mergeCell ref="H11:R11"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.31496062992125984" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/Simulador.xlsx
+++ b/Simulador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jrod\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F6FC7-BE1A-4EDD-ACFD-643BFEC99DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3E3DF6-DE37-48EC-8F6C-5DDEBB64D0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulador  IR 2024" sheetId="1" state="hidden" r:id="rId1"/>
@@ -144,7 +144,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Remuneração básica, Qualificação, FG, CD, Gratificação Natalina, 13º salário, 1/3 férias, etc)</t>
+Remuneração básica, Qualificação, FG, CD, Gratificação Natalina, substituição, 13º salário, etc)</t>
         </r>
       </text>
     </comment>
@@ -593,6 +593,10 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -626,6 +630,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,16 +650,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1456,36 +1456,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="28" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="27" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E2" s="10"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1502,19 +1502,19 @@
       </c>
       <c r="E3" s="10"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
       <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1559,10 +1559,10 @@
       <c r="E5" s="11"/>
       <c r="G5" s="9"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="4"/>
       <c r="L5" s="15">
         <v>0</v>
@@ -1700,11 +1700,11 @@
       <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="2">
         <v>189.59</v>
       </c>
@@ -1730,19 +1730,19 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G11" s="9"/>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
       <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1810,10 +1810,10 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G15" s="9"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="24"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="4"/>
       <c r="L15" s="7">
         <f>L5+J13</f>
@@ -1830,10 +1830,10 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G16" s="9"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="23"/>
+      <c r="J16" s="27"/>
       <c r="K16" s="4"/>
       <c r="L16" s="7" t="str">
         <f>N13</f>
@@ -1989,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,36 +2011,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="32" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="31" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E2" s="10"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2057,19 +2057,19 @@
       </c>
       <c r="E3" s="10"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
       <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -2114,10 +2114,10 @@
       <c r="E5" s="11"/>
       <c r="G5" s="9"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="4"/>
       <c r="L5" s="15">
         <v>0</v>
@@ -2155,11 +2155,11 @@
         <v>0</v>
       </c>
       <c r="M6" s="4"/>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="24"/>
-      <c r="P6" s="35"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="41"/>
       <c r="Q6" s="7">
         <f>IF(L6+P7&lt;C11,C11,L6+P7)</f>
         <v>607.20000000000005</v>
@@ -2260,11 +2260,11 @@
       <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="2">
         <v>189.59</v>
       </c>
@@ -2291,27 +2291,27 @@
       <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="2">
         <v>607.20000000000005</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
       <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2382,10 +2382,10 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G15" s="9"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="24"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="4"/>
       <c r="L15" s="7">
         <f>L5+J13</f>
@@ -2402,10 +2402,10 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G16" s="9"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="23"/>
+      <c r="J16" s="27"/>
       <c r="K16" s="4"/>
       <c r="L16" s="7">
         <f>IF(L6+M13&lt;C11,C11,L6+M13)</f>
@@ -2489,10 +2489,10 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G20" s="9"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="40"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="4"/>
       <c r="L20" s="7" t="str">
         <f>IF(AND(J13&lt;&gt;"",J13&lt;&gt;0),IF(L18&lt;=$B$4,0,IF(AND(L18&gt;=$A$5,L18&lt;=$B$5),TRUNC(L18*$C$5/100-$D$5,2),IF(AND(L18&gt;=$A$6,L18&lt;=$B$6),TRUNC(L18*$C$6/100-$D$6,2),IF(AND(L18&gt;=$A$7,L18&lt;=$B$7),TRUNC(L18*$C$7/100-$D$7,2),IF(L18&gt;=$A$8,TRUNC(L18*$C$8/100-$D$8,2),"")))))-J9,"")</f>
@@ -2514,17 +2514,17 @@
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37" t="str">
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21" t="str">
         <f>IF(AND(L5=0,L6=0),N21,"")</f>
         <v/>
       </c>
-      <c r="N21" s="39" t="str">
+      <c r="N21" s="23" t="str">
         <f>IF(AND(J13&lt;&gt;"",J13&lt;&gt;0),IF(L18&lt;=$B$4,0,IF(AND(L18&gt;=$A$5,L18&lt;=$B$5),TRUNC(L18*$C$5/100-$D$5,2),IF(AND(L18&gt;=$A$6,L18&lt;=$B$6),TRUNC(L18*$C$6/100-$D$6,2),IF(AND(L18&gt;=$A$7,L18&lt;=$B$7),TRUNC(L18*$C$7/100-$D$7,2),IF(L18&gt;=$A$8,TRUNC(L18*$C$8/100-$D$8,2),""))))),"")</f>
         <v/>
       </c>
@@ -2550,10 +2550,10 @@
       <c r="S22" s="9"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L23" s="38"/>
+      <c r="L23" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x7JJkguB6UZVGC3Lj2WQNLl4FsM4bipS5b/ZIjcYzCQuE+40nmAmkwhmmfLXiToBS/3uSI6wGRYExV6b0qV67A==" saltValue="jDnFHnL15opEw40/yMLJQA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eGZ0f8S3YAd9A65IBKTtpwJGb5OLunRvLYR3FcQ21+MQvOBm5Frp0xeRPJpnmYIhPUC/FGGSvQyHRWay38zxYQ==" saltValue="R+gd7s7ZVD2D4PFdNb0fDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:K21"/>

--- a/Simulador.xlsx
+++ b/Simulador.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jrod\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jrod\Desktop\Documentos office e PDFs\Planilhas Excel\Cálculo do IR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3E3DF6-DE37-48EC-8F6C-5DDEBB64D0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B13FC9-EEA5-4C91-B569-8AB4CD1EF111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulador  IR 2024" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Simulador IR 2025" sheetId="3" r:id="rId2"/>
+    <sheet name="Controle de revisão" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -144,7 +145,31 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Remuneração básica, Qualificação, FG, CD, Gratificação Natalina, substituição, 13º salário, etc)</t>
+Remuneração básica, Qualificação IQ, FG, CD, Gratificação Natalina, substituição, etc)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{D338E1C1-5729-4EA8-94C7-0924A8474E1F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jrod:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Inclui Funpresp, Contribuição Plano Seguridade Social, Pensão alimentícia e outras deduções obrigatórias.</t>
         </r>
       </text>
     </comment>
@@ -196,6 +221,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{77F7D2C0-24E5-4269-913C-3C1124496715}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jrod:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Se o IR for zerado, não haverá lançado de retenção no SIAFI.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I21" authorId="0" shapeId="0" xr:uid="{354C0ED8-C217-4CD8-8B00-90DD09351D44}">
       <text>
         <r>
@@ -225,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
   <si>
     <t>Tabela progressiva do IR - Ano 2024</t>
   </si>
@@ -299,12 +348,6 @@
     <t>Tabela IR 2024</t>
   </si>
   <si>
-    <t>Tabela IR 2025</t>
-  </si>
-  <si>
-    <t>Tabela progressiva do IR - Ano 2025</t>
-  </si>
-  <si>
     <t>A partir de 1º de maio/2025</t>
   </si>
   <si>
@@ -323,9 +366,6 @@
     <t>podendo ocorrer diferença de um centavo devido a arredondamentos!</t>
   </si>
   <si>
-    <t>Revisão 11- 02/09/2025</t>
-  </si>
-  <si>
     <t>Desconto simplificado</t>
   </si>
   <si>
@@ -336,6 +376,69 @@
   </si>
   <si>
     <t>Simulador IR do contracheque do servidor (preencher somente as células azuis):</t>
+  </si>
+  <si>
+    <t>Líquido a receber:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referência: </t>
+  </si>
+  <si>
+    <t>Rendimentos Tributáveis</t>
+  </si>
+  <si>
+    <t>Até R$ 5.000,00</t>
+  </si>
+  <si>
+    <t>Entre R$ 5.000,01 e R$ 7.350,00</t>
+  </si>
+  <si>
+    <t>Cálculo do IR - 2026</t>
+  </si>
+  <si>
+    <t>IR:</t>
+  </si>
+  <si>
+    <t>Tabela IR 2026</t>
+  </si>
+  <si>
+    <t>Para Rend. Tributáveis acima de R$ 7.350,00</t>
+  </si>
+  <si>
+    <t>Cálculo da redução *</t>
+  </si>
+  <si>
+    <t>*R$  978,62 - (0,133145 * Rendimentos Tributáveis)</t>
+  </si>
+  <si>
+    <t>Acima de R$ 7.350,00 - Tabela I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabela I -  progressiva do IR - Ano 2026 </t>
+  </si>
+  <si>
+    <t>Cálculo do IR - 2026 - Exclusivo para a bolsa</t>
+  </si>
+  <si>
+    <t>IR para bolsas:</t>
+  </si>
+  <si>
+    <t>Revisão 13.2026.1 - 21/01/2026</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Versão</t>
+  </si>
+  <si>
+    <t>Alteração</t>
+  </si>
+  <si>
+    <t>13.2026.1</t>
+  </si>
+  <si>
+    <t>Adequação da planilha paraa nova metodologia de cálculo do IR para 2026</t>
   </si>
 </sst>
 </file>
@@ -345,7 +448,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,8 +530,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +606,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -597,6 +759,9 @@
     <xf numFmtId="4" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,6 +795,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -649,6 +818,74 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1116,6 +1353,126 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Seta: para a Direita 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF3BC5B9-F8E5-862B-2CDC-8375AACB9523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13087350" y="1095375"/>
+          <a:ext cx="476250" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Seta: para a Direita 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED83B102-6B5D-4D8F-A380-D5EC4AB45BEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13125449" y="3028950"/>
+          <a:ext cx="504825" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1456,36 +1813,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="31" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E2" s="10"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1502,19 +1859,19 @@
       </c>
       <c r="E3" s="10"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
       <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1559,10 +1916,10 @@
       <c r="E5" s="11"/>
       <c r="G5" s="9"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="27"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="4"/>
       <c r="L5" s="15">
         <v>0</v>
@@ -1688,7 +2045,7 @@
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1700,11 +2057,11 @@
       <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="2">
         <v>189.59</v>
       </c>
@@ -1730,19 +2087,19 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G11" s="9"/>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
       <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1810,10 +2167,10 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G15" s="9"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="28"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="4"/>
       <c r="L15" s="7">
         <f>L5+J13</f>
@@ -1830,10 +2187,10 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G16" s="9"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="27"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="4"/>
       <c r="L16" s="7" t="str">
         <f>N13</f>
@@ -1987,9 +2344,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -2008,41 +2365,55 @@
     <col min="18" max="18" width="14.85546875" customWidth="1"/>
     <col min="19" max="19" width="2.28515625" customWidth="1"/>
     <col min="21" max="21" width="13.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="31.7109375" customWidth="1"/>
+    <col min="24" max="24" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="10"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="V2" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="26"/>
+      <c r="X2" s="27"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2056,23 +2427,28 @@
         <v>4</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="64"/>
+      <c r="H3" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="64"/>
+      <c r="V3" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="9"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W3" s="49"/>
+      <c r="X3" s="50"/>
+    </row>
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>2428.8000000000002</v>
@@ -2084,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -2096,9 +2472,18 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S4" s="64"/>
+      <c r="V4" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" s="53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2428.81</v>
       </c>
@@ -2112,12 +2497,12 @@
         <v>182.16</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="27"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="4"/>
       <c r="L5" s="15">
         <v>0</v>
@@ -2128,9 +2513,23 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S5" s="64"/>
+      <c r="U5" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="55">
+        <v>0</v>
+      </c>
+      <c r="W5" s="55" t="e">
+        <f>$X$5-$W$8</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X5" s="55" t="e">
+        <f>IF(L8&lt;=$B$4,0,IF(AND(L8&gt;=$A$5,L8&lt;=$B$5),TRUNC(L8*$C$5/100-$D$5,2),IF(AND(L8&gt;=$A$6,L8&lt;=$B$6),TRUNC(L8*$C$6/100-$D$6,2),IF(AND(L8&gt;=$A$7,L8&lt;=$B$7),TRUNC(L8*$C$7/100-$D$7,2),IF(L8&gt;=$A$8,TRUNC(L8*$C$8/100-$D$8,2),"")))))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2826.66</v>
       </c>
@@ -2144,7 +2543,7 @@
         <v>394.16</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="64"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
         <v>8</v>
@@ -2155,19 +2554,23 @@
         <v>0</v>
       </c>
       <c r="M6" s="4"/>
-      <c r="N6" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="28"/>
-      <c r="P6" s="41"/>
+      <c r="N6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="29"/>
+      <c r="P6" s="43"/>
       <c r="Q6" s="7">
         <f>IF(L6+P7&lt;C11,C11,L6+P7)</f>
         <v>607.20000000000005</v>
       </c>
       <c r="R6" s="4"/>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S6" s="64"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3751.06</v>
       </c>
@@ -2181,7 +2584,7 @@
         <v>675.49</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
         <v>9</v>
@@ -2202,9 +2605,12 @@
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S7" s="64"/>
+      <c r="W7" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4664.68</v>
       </c>
@@ -2216,7 +2622,7 @@
         <v>908.73</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
         <v>11</v>
@@ -2233,22 +2639,26 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="9"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S8" s="64"/>
+      <c r="W8" s="57">
+        <f>IF(AND(L5&gt;5000,L5&lt;=7350),978.62-(0.133145*L5),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E9" s="10"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="7" t="e">
-        <f>IF(L8&lt;=$B$4,0,IF(AND(L8&gt;=$A$5,L8&lt;=$B$5),TRUNC(L8*$C$5/100-$D$5,2),IF(AND(L8&gt;=$A$6,L8&lt;=$B$6),TRUNC(L8*$C$6/100-$D$6,2),IF(AND(L8&gt;=$A$7,L8&lt;=$B$7),TRUNC(L8*$C$7/100-$D$7,2),IF(L8&gt;=$A$8,TRUNC(L8*$C$8/100-$D$8,2),"")))))</f>
-        <v>#VALUE!</v>
+      <c r="J9" s="7">
+        <f>IF(L5&lt;=5000,V5,IF(AND(L5&gt;5000,L5&lt;=7350),W5,X5))</f>
+        <v>0</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2256,31 +2666,32 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="9"/>
+      <c r="S9" s="64"/>
       <c r="U9" s="12"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="W9" s="57"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="2">
         <v>189.59</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="64"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="7" t="e">
+      <c r="J10" s="7">
         <f>L5-L6-J9</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -2288,34 +2699,37 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="9"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="26"/>
+      <c r="S10" s="64"/>
+      <c r="W10" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="27"/>
       <c r="C11" s="2">
         <v>607.20000000000005</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="30" t="s">
+      <c r="G11" s="64"/>
+      <c r="H11" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G12" s="9"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="64"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G12" s="64"/>
       <c r="H12" s="4"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2327,13 +2741,13 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="9"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S12" s="64"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="64"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>12</v>
@@ -2362,10 +2776,15 @@
         <v>0</v>
       </c>
       <c r="R13" s="4"/>
-      <c r="S13" s="9"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G14" s="9"/>
+      <c r="S13" s="64"/>
+      <c r="V13" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="W13" s="61"/>
+      <c r="X13" s="62"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G14" s="64"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -2377,15 +2796,20 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G15" s="9"/>
+      <c r="S14" s="64"/>
+      <c r="V14" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="49"/>
+      <c r="X14" s="50"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G15" s="64"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="28"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="4"/>
       <c r="L15" s="7">
         <f>L5+J13</f>
@@ -2397,15 +2821,24 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G16" s="9"/>
+      <c r="S15" s="64"/>
+      <c r="V15" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="X15" s="53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G16" s="64"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="27"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="4"/>
       <c r="L16" s="7">
         <f>IF(L6+M13&lt;C11,C11,L6+M13)</f>
@@ -2417,10 +2850,25 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="9"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G17" s="9"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="U16" s="59"/>
+      <c r="V16" s="55">
+        <v>0</v>
+      </c>
+      <c r="W16" s="55" t="e">
+        <f>$X$16-W19</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X16" s="55" t="str">
+        <f>IF(AND(J13&lt;&gt;"",J13&lt;&gt;0),IF(L18&lt;=$B$4,0,IF(AND(L18&gt;=$A$5,L18&lt;=$B$5),TRUNC(L18*$C$5/100-$D$5,2),IF(AND(L18&gt;=$A$6,L18&lt;=$B$6),TRUNC(L18*$C$6/100-$D$6,2),IF(AND(L18&gt;=$A$7,L18&lt;=$B$7),TRUNC(L18*$C$7/100-$D$7,2),IF(L18&gt;=$A$8,TRUNC(L18*$C$8/100-$D$8,2),"")))))-J9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G17" s="64"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
         <v>9</v>
@@ -2442,10 +2890,15 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="9"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G18" s="9"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G18" s="64"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
         <v>11</v>
@@ -2462,10 +2915,13 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="9"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="9"/>
+      <c r="S18" s="64"/>
+      <c r="W18" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="64"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4" t="s">
         <v>17</v>
@@ -2484,19 +2940,23 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="9"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G20" s="9"/>
+      <c r="S19" s="64"/>
+      <c r="W19" s="57">
+        <f>IF(AND(L15&gt;5000,L15&lt;=7350),978.62-(0.133145*L15),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G20" s="64"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="35"/>
+      <c r="I20" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="37"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="7" t="str">
-        <f>IF(AND(J13&lt;&gt;"",J13&lt;&gt;0),IF(L18&lt;=$B$4,0,IF(AND(L18&gt;=$A$5,L18&lt;=$B$5),TRUNC(L18*$C$5/100-$D$5,2),IF(AND(L18&gt;=$A$6,L18&lt;=$B$6),TRUNC(L18*$C$6/100-$D$6,2),IF(AND(L18&gt;=$A$7,L18&lt;=$B$7),TRUNC(L18*$C$7/100-$D$7,2),IF(L18&gt;=$A$8,TRUNC(L18*$C$8/100-$D$8,2),"")))))-J9,"")</f>
-        <v/>
+      <c r="L20" s="7">
+        <f>IF(AND(L5&lt;&gt;0,L6&lt;&gt;0),IF(L15&lt;=5000,V16,IF(AND(L15&gt;5000,L15&lt;=7350),W16,X16)),0)</f>
+        <v>0</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>19</v>
@@ -2506,72 +2966,182 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="9"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S20" s="64"/>
+      <c r="U20" s="12"/>
+      <c r="W20" s="57"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="G21" s="64"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
+      <c r="I21" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="20"/>
-      <c r="M21" s="21" t="str">
-        <f>IF(AND(L5=0,L6=0),N21,"")</f>
-        <v/>
+      <c r="M21" s="21">
+        <f>IF(L15&lt;=5000,V16,IF(AND(L15&gt;5000,L15&lt;=7350),W16,X16))</f>
+        <v>0</v>
       </c>
       <c r="N21" s="23" t="str">
         <f>IF(AND(J13&lt;&gt;"",J13&lt;&gt;0),IF(L18&lt;=$B$4,0,IF(AND(L18&gt;=$A$5,L18&lt;=$B$5),TRUNC(L18*$C$5/100-$D$5,2),IF(AND(L18&gt;=$A$6,L18&lt;=$B$6),TRUNC(L18*$C$6/100-$D$6,2),IF(AND(L18&gt;=$A$7,L18&lt;=$B$7),TRUNC(L18*$C$7/100-$D$7,2),IF(L18&gt;=$A$8,TRUNC(L18*$C$8/100-$D$8,2),""))))),"")</f>
         <v/>
       </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="O21" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="7">
+        <f>J13-M13-L20</f>
+        <v>0</v>
+      </c>
       <c r="R21" s="4"/>
-      <c r="S21" s="9"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S21" s="64"/>
+      <c r="W21" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L23" s="22"/>
     </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G24" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eGZ0f8S3YAd9A65IBKTtpwJGb5OLunRvLYR3FcQ21+MQvOBm5Frp0xeRPJpnmYIhPUC/FGGSvQyHRWay38zxYQ==" saltValue="R+gd7s7ZVD2D4PFdNb0fDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="13">
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
+  <mergeCells count="30">
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="T16:U17"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="H11:R11"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="O21:P21"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="J1:O2"/>
     <mergeCell ref="H3:R3"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="H11:R11"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="G24:S24"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.31496062992125984" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B317F5-F0E3-4572-89B0-30E21C864507}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="79.28515625" style="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="66">
+        <v>46043</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Simulador.xlsx
+++ b/Simulador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jrod\Desktop\Documentos office e PDFs\Planilhas Excel\Cálculo do IR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B13FC9-EEA5-4C91-B569-8AB4CD1EF111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9E40CB-4157-45E4-AEC6-B87370EAABDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulador  IR 2024" sheetId="1" state="hidden" r:id="rId1"/>
@@ -762,6 +762,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -793,6 +819,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -804,89 +887,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1215,15 +1215,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>52828</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>5203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47598</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190473</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1246,7 +1246,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="504826" y="5015353"/>
+          <a:off x="0" y="4253353"/>
           <a:ext cx="4019550" cy="185270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1813,36 +1813,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="33" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="32" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E2" s="10"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1859,19 +1859,19 @@
       </c>
       <c r="E3" s="10"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
       <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1916,10 +1916,10 @@
       <c r="E5" s="11"/>
       <c r="G5" s="9"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="28"/>
+      <c r="J5" s="38"/>
       <c r="K5" s="4"/>
       <c r="L5" s="15">
         <v>0</v>
@@ -2057,11 +2057,11 @@
       <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="2">
         <v>189.59</v>
       </c>
@@ -2087,19 +2087,19 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G11" s="9"/>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
       <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2167,10 +2167,10 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G15" s="9"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="29"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="4"/>
       <c r="L15" s="7">
         <f>L5+J13</f>
@@ -2187,10 +2187,10 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G16" s="9"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="28"/>
+      <c r="J16" s="38"/>
       <c r="K16" s="4"/>
       <c r="L16" s="7" t="str">
         <f>N13</f>
@@ -2346,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,47 +2371,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="40" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="39" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="10"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="V2" s="25" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="V2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="27"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="37"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2427,26 +2427,26 @@
         <v>4</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="63" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="64"/>
-      <c r="V3" s="48" t="s">
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="31"/>
+      <c r="V3" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="49"/>
-      <c r="X3" s="50"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="56"/>
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="G4" s="64"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -2472,14 +2472,14 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="64"/>
-      <c r="V4" s="51" t="s">
+      <c r="S4" s="31"/>
+      <c r="V4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="52" t="s">
+      <c r="W4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="53" t="s">
+      <c r="X4" s="29" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2497,12 +2497,12 @@
         <v>182.16</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="G5" s="64"/>
+      <c r="G5" s="31"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="28"/>
+      <c r="J5" s="38"/>
       <c r="K5" s="4"/>
       <c r="L5" s="15">
         <v>0</v>
@@ -2513,18 +2513,18 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="64"/>
-      <c r="U5" s="54" t="s">
+      <c r="S5" s="31"/>
+      <c r="U5" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="55">
-        <v>0</v>
-      </c>
-      <c r="W5" s="55" t="e">
+      <c r="V5" s="46">
+        <v>0</v>
+      </c>
+      <c r="W5" s="46" t="e">
         <f>$X$5-$W$8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="X5" s="55" t="e">
+      <c r="X5" s="46" t="e">
         <f>IF(L8&lt;=$B$4,0,IF(AND(L8&gt;=$A$5,L8&lt;=$B$5),TRUNC(L8*$C$5/100-$D$5,2),IF(AND(L8&gt;=$A$6,L8&lt;=$B$6),TRUNC(L8*$C$6/100-$D$6,2),IF(AND(L8&gt;=$A$7,L8&lt;=$B$7),TRUNC(L8*$C$7/100-$D$7,2),IF(L8&gt;=$A$8,TRUNC(L8*$C$8/100-$D$8,2),"")))))</f>
         <v>#VALUE!</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>394.16</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="G6" s="64"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
         <v>8</v>
@@ -2554,21 +2554,21 @@
         <v>0</v>
       </c>
       <c r="M6" s="4"/>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="43"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="61"/>
       <c r="Q6" s="7">
         <f>IF(L6+P7&lt;C11,C11,L6+P7)</f>
         <v>607.20000000000005</v>
       </c>
       <c r="R6" s="4"/>
-      <c r="S6" s="64"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
+      <c r="S6" s="31"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -2584,7 +2584,7 @@
         <v>675.49</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="G7" s="64"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
         <v>9</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="64"/>
+      <c r="S7" s="31"/>
       <c r="W7" s="24" t="s">
         <v>43</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>908.73</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="G8" s="64"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
         <v>11</v>
@@ -2639,15 +2639,15 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="64"/>
-      <c r="W8" s="57">
+      <c r="S8" s="31"/>
+      <c r="W8" s="47">
         <f>IF(AND(L5&gt;5000,L5&lt;=7350),978.62-(0.133145*L5),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E9" s="10"/>
-      <c r="G9" s="64"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
         <v>6</v>
@@ -2666,21 +2666,21 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="64"/>
+      <c r="S9" s="31"/>
       <c r="U9" s="12"/>
-      <c r="W9" s="57"/>
+      <c r="W9" s="47"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="2">
         <v>189.59</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="G10" s="64"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
         <v>20</v>
@@ -2699,37 +2699,37 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="64"/>
-      <c r="W10" s="58" t="s">
+      <c r="S10" s="31"/>
+      <c r="W10" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="2">
         <v>607.20000000000005</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="63" t="s">
+      <c r="G11" s="31"/>
+      <c r="H11" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="64"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G12" s="64"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="4"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2741,13 +2741,13 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="64"/>
+      <c r="S12" s="31"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="64"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>12</v>
@@ -2776,15 +2776,15 @@
         <v>0</v>
       </c>
       <c r="R13" s="4"/>
-      <c r="S13" s="64"/>
-      <c r="V13" s="60" t="s">
+      <c r="S13" s="31"/>
+      <c r="V13" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="W13" s="61"/>
-      <c r="X13" s="62"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="53"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G14" s="64"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -2796,20 +2796,20 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="64"/>
-      <c r="V14" s="48" t="s">
+      <c r="S14" s="31"/>
+      <c r="V14" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="49"/>
-      <c r="X14" s="50"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="56"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G15" s="64"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="29"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="4"/>
       <c r="L15" s="7">
         <f>L5+J13</f>
@@ -2821,24 +2821,24 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="64"/>
-      <c r="V15" s="51" t="s">
+      <c r="S15" s="31"/>
+      <c r="V15" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="W15" s="52" t="s">
+      <c r="W15" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="X15" s="53" t="s">
+      <c r="X15" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G16" s="64"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="28"/>
+      <c r="J16" s="38"/>
       <c r="K16" s="4"/>
       <c r="L16" s="7">
         <f>IF(L6+M13&lt;C11,C11,L6+M13)</f>
@@ -2850,25 +2850,25 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="54" t="s">
+      <c r="S16" s="31"/>
+      <c r="T16" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="U16" s="59"/>
-      <c r="V16" s="55">
-        <v>0</v>
-      </c>
-      <c r="W16" s="55" t="e">
+      <c r="U16" s="49"/>
+      <c r="V16" s="46">
+        <v>0</v>
+      </c>
+      <c r="W16" s="46" t="e">
         <f>$X$16-W19</f>
         <v>#VALUE!</v>
       </c>
-      <c r="X16" s="55" t="str">
+      <c r="X16" s="46" t="str">
         <f>IF(AND(J13&lt;&gt;"",J13&lt;&gt;0),IF(L18&lt;=$B$4,0,IF(AND(L18&gt;=$A$5,L18&lt;=$B$5),TRUNC(L18*$C$5/100-$D$5,2),IF(AND(L18&gt;=$A$6,L18&lt;=$B$6),TRUNC(L18*$C$6/100-$D$6,2),IF(AND(L18&gt;=$A$7,L18&lt;=$B$7),TRUNC(L18*$C$7/100-$D$7,2),IF(L18&gt;=$A$8,TRUNC(L18*$C$8/100-$D$8,2),"")))))-J9,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G17" s="64"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
         <v>9</v>
@@ -2890,15 +2890,15 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G18" s="64"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
         <v>11</v>
@@ -2915,13 +2915,13 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="64"/>
+      <c r="S18" s="31"/>
       <c r="W18" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="64"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4" t="s">
         <v>17</v>
@@ -2940,19 +2940,19 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="64"/>
-      <c r="W19" s="57">
+      <c r="S19" s="31"/>
+      <c r="W19" s="47">
         <f>IF(AND(L15&gt;5000,L15&lt;=7350),978.62-(0.133145*L15),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G20" s="64"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="37"/>
+      <c r="J20" s="66"/>
       <c r="K20" s="4"/>
       <c r="L20" s="7">
         <f>IF(AND(L5&lt;&gt;0,L6&lt;&gt;0),IF(L15&lt;=5000,V16,IF(AND(L15&gt;5000,L15&lt;=7350),W16,X16)),0)</f>
@@ -2966,21 +2966,21 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="64"/>
+      <c r="S20" s="31"/>
       <c r="U20" s="12"/>
-      <c r="W20" s="57"/>
+      <c r="W20" s="47"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="64"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
       <c r="L21" s="20"/>
       <c r="M21" s="21">
         <f>IF(L15&lt;=5000,V16,IF(AND(L15&gt;5000,L15&lt;=7350),W16,X16))</f>
@@ -2990,62 +2990,72 @@
         <f>IF(AND(J13&lt;&gt;"",J13&lt;&gt;0),IF(L18&lt;=$B$4,0,IF(AND(L18&gt;=$A$5,L18&lt;=$B$5),TRUNC(L18*$C$5/100-$D$5,2),IF(AND(L18&gt;=$A$6,L18&lt;=$B$6),TRUNC(L18*$C$6/100-$D$6,2),IF(AND(L18&gt;=$A$7,L18&lt;=$B$7),TRUNC(L18*$C$7/100-$D$7,2),IF(L18&gt;=$A$8,TRUNC(L18*$C$8/100-$D$8,2),""))))),"")</f>
         <v/>
       </c>
-      <c r="O21" s="44" t="s">
+      <c r="O21" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="45"/>
+      <c r="P21" s="63"/>
       <c r="Q21" s="7">
         <f>J13-M13-L20</f>
         <v>0</v>
       </c>
       <c r="R21" s="4"/>
-      <c r="S21" s="64"/>
-      <c r="W21" s="58" t="s">
+      <c r="S21" s="31"/>
+      <c r="W21" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ne93lTNlux/GNdJtUDTCCHs+NMKApHMevswbqxRYNhrE+fHWJH2bY6PQ/+lQUfM1airh71JAOSGkiDXhxcIygw==" saltValue="RLbnMbsAQuClLb2DOg63vA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="30">
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="T16:U17"/>
+    <mergeCell ref="G24:S24"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="J1:O2"/>
+    <mergeCell ref="H3:R3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="W8:W9"/>
@@ -3057,20 +3067,11 @@
     <mergeCell ref="W5:W6"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="H11:R11"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="J1:O2"/>
-    <mergeCell ref="H3:R3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="G24:S24"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="T16:U17"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.31496062992125984" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3089,57 +3090,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="79.28515625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="79.28515625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="26" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="66">
+      <c r="A2" s="33">
         <v>46043</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Simulador.xlsx
+++ b/Simulador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jrod\Desktop\Documentos office e PDFs\Planilhas Excel\Cálculo do IR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9E40CB-4157-45E4-AEC6-B87370EAABDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AE98308-E5ED-417F-B6D7-B3D237A7E62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulador  IR 2024" sheetId="1" state="hidden" r:id="rId1"/>
@@ -145,7 +145,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Remuneração básica, Qualificação IQ, FG, CD, Gratificação Natalina, substituição, etc)</t>
+Remuneração básica, Qualificação IQ, FG, CD, substituição, GECCetc)</t>
         </r>
       </text>
     </comment>
@@ -193,7 +193,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-(Remuneração básica, Qualificação, FG, CD, Gratificação Natalina, 13º salário, 1/3 férias, etc) + valor da bolsa</t>
+L5 + J13</t>
         </r>
       </text>
     </comment>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>Tabela progressiva do IR - Ano 2024</t>
   </si>
@@ -381,9 +381,6 @@
     <t>Líquido a receber:</t>
   </si>
   <si>
-    <t xml:space="preserve">Referência: </t>
-  </si>
-  <si>
     <t>Rendimentos Tributáveis</t>
   </si>
   <si>
@@ -423,9 +420,6 @@
     <t>IR para bolsas:</t>
   </si>
   <si>
-    <t>Revisão 13.2026.1 - 21/01/2026</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -438,7 +432,46 @@
     <t>13.2026.1</t>
   </si>
   <si>
-    <t>Adequação da planilha paraa nova metodologia de cálculo do IR para 2026</t>
+    <t>Criada por José Rodrigues - CFCA - Reitoria - Março/2025</t>
+  </si>
+  <si>
+    <t>13.2026.2</t>
+  </si>
+  <si>
+    <t>Algumas validações adicionais nas fórmulas das células M21 e Q21</t>
+  </si>
+  <si>
+    <t>Revisão 13.2026.2 - 24/01/2026</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Referência: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(digite o nome do servidor/colaborador e o mês de referência)</t>
+    </r>
+  </si>
+  <si>
+    <t>Campo de referência para informação do nome do servidor/colaborador - G24</t>
+  </si>
+  <si>
+    <t>Adequação da planilha para a nova metodologia de cálculo do IR para 2026</t>
   </si>
 </sst>
 </file>
@@ -448,7 +481,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +582,12 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -728,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -821,63 +860,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -887,6 +869,69 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2347,7 +2392,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E1" sqref="E1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2364,51 +2409,52 @@
     <col min="16" max="16" width="10.7109375" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" customWidth="1"/>
     <col min="19" max="19" width="2.28515625" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="15" customWidth="1"/>
-    <col min="23" max="23" width="31.7109375" customWidth="1"/>
-    <col min="24" max="24" width="30.42578125" customWidth="1"/>
+    <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="31.7109375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="30.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
       <c r="D1" s="37"/>
-      <c r="E1" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="64" t="s">
+      <c r="E1" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="10"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
       <c r="V2" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W2" s="36"/>
       <c r="X2" s="37"/>
@@ -2428,25 +2474,25 @@
       </c>
       <c r="E3" s="10"/>
       <c r="G3" s="31"/>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
       <c r="S3" s="31"/>
-      <c r="V3" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="W3" s="55"/>
-      <c r="X3" s="56"/>
+      <c r="V3" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="64"/>
+      <c r="X3" s="65"/>
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -2474,13 +2520,13 @@
       <c r="R4" s="4"/>
       <c r="S4" s="31"/>
       <c r="V4" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="28" t="s">
-        <v>38</v>
-      </c>
       <c r="X4" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -2514,17 +2560,17 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="31"/>
-      <c r="U5" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="V5" s="46">
-        <v>0</v>
-      </c>
-      <c r="W5" s="46" t="e">
+      <c r="U5" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="66">
+        <v>0</v>
+      </c>
+      <c r="W5" s="66" t="e">
         <f>$X$5-$W$8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="X5" s="46" t="e">
+      <c r="X5" s="66" t="e">
         <f>IF(L8&lt;=$B$4,0,IF(AND(L8&gt;=$A$5,L8&lt;=$B$5),TRUNC(L8*$C$5/100-$D$5,2),IF(AND(L8&gt;=$A$6,L8&lt;=$B$6),TRUNC(L8*$C$6/100-$D$6,2),IF(AND(L8&gt;=$A$7,L8&lt;=$B$7),TRUNC(L8*$C$7/100-$D$7,2),IF(L8&gt;=$A$8,TRUNC(L8*$C$8/100-$D$8,2),"")))))</f>
         <v>#VALUE!</v>
       </c>
@@ -2558,17 +2604,17 @@
         <v>27</v>
       </c>
       <c r="O6" s="39"/>
-      <c r="P6" s="61"/>
+      <c r="P6" s="52"/>
       <c r="Q6" s="7">
         <f>IF(L6+P7&lt;C11,C11,L6+P7)</f>
         <v>607.20000000000005</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="31"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -2607,7 +2653,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="31"/>
       <c r="W7" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -2640,7 +2686,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="31"/>
-      <c r="W8" s="47">
+      <c r="W8" s="59">
         <f>IF(AND(L5&gt;5000,L5&lt;=7350),978.62-(0.133145*L5),0)</f>
         <v>0</v>
       </c>
@@ -2668,7 +2714,7 @@
       <c r="R9" s="4"/>
       <c r="S9" s="31"/>
       <c r="U9" s="12"/>
-      <c r="W9" s="47"/>
+      <c r="W9" s="59"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
@@ -2701,7 +2747,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="31"/>
       <c r="W10" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -2713,19 +2759,19 @@
         <v>607.20000000000005</v>
       </c>
       <c r="G11" s="31"/>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -2777,11 +2823,11 @@
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="31"/>
-      <c r="V13" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="W13" s="52"/>
-      <c r="X13" s="53"/>
+      <c r="V13" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13" s="61"/>
+      <c r="X13" s="62"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G14" s="31"/>
@@ -2797,11 +2843,11 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="31"/>
-      <c r="V14" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="55"/>
-      <c r="X14" s="56"/>
+      <c r="V14" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="64"/>
+      <c r="X14" s="65"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G15" s="31"/>
@@ -2823,13 +2869,13 @@
       <c r="R15" s="4"/>
       <c r="S15" s="31"/>
       <c r="V15" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="W15" s="28" t="s">
-        <v>38</v>
-      </c>
       <c r="X15" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -2851,18 +2897,18 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="31"/>
-      <c r="T16" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="U16" s="49"/>
-      <c r="V16" s="46">
-        <v>0</v>
-      </c>
-      <c r="W16" s="46" t="e">
+      <c r="T16" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="U16" s="67"/>
+      <c r="V16" s="66">
+        <v>0</v>
+      </c>
+      <c r="W16" s="66" t="e">
         <f>$X$16-W19</f>
         <v>#VALUE!</v>
       </c>
-      <c r="X16" s="46" t="str">
+      <c r="X16" s="66" t="str">
         <f>IF(AND(J13&lt;&gt;"",J13&lt;&gt;0),IF(L18&lt;=$B$4,0,IF(AND(L18&gt;=$A$5,L18&lt;=$B$5),TRUNC(L18*$C$5/100-$D$5,2),IF(AND(L18&gt;=$A$6,L18&lt;=$B$6),TRUNC(L18*$C$6/100-$D$6,2),IF(AND(L18&gt;=$A$7,L18&lt;=$B$7),TRUNC(L18*$C$7/100-$D$7,2),IF(L18&gt;=$A$8,TRUNC(L18*$C$8/100-$D$8,2),"")))))-J9,"")</f>
         <v/>
       </c>
@@ -2891,11 +2937,11 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="31"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G18" s="31"/>
@@ -2917,7 +2963,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="31"/>
       <c r="W18" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2941,7 +2987,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="31"/>
-      <c r="W19" s="47">
+      <c r="W19" s="59">
         <f>IF(AND(L15&gt;5000,L15&lt;=7350),978.62-(0.133145*L15),0)</f>
         <v>0</v>
       </c>
@@ -2949,10 +2995,10 @@
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G20" s="31"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="66" t="s">
+      <c r="I20" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="66"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="4"/>
       <c r="L20" s="7">
         <f>IF(AND(L5&lt;&gt;0,L6&lt;&gt;0),IF(L15&lt;=5000,V16,IF(AND(L15&gt;5000,L15&lt;=7350),W16,X16)),0)</f>
@@ -2968,7 +3014,7 @@
       <c r="R20" s="4"/>
       <c r="S20" s="31"/>
       <c r="U20" s="12"/>
-      <c r="W20" s="47"/>
+      <c r="W20" s="59"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
@@ -2976,86 +3022,79 @@
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="67" t="s">
+      <c r="I21" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="20"/>
       <c r="M21" s="21">
-        <f>IF(L15&lt;=5000,V16,IF(AND(L15&gt;5000,L15&lt;=7350),W16,X16))</f>
+        <f>IF(L5=0,IF(L15&lt;=5000,V16,IF(AND(L15&gt;5000,L15&lt;=7350),W16,X16)),"")</f>
         <v>0</v>
       </c>
       <c r="N21" s="23" t="str">
         <f>IF(AND(J13&lt;&gt;"",J13&lt;&gt;0),IF(L18&lt;=$B$4,0,IF(AND(L18&gt;=$A$5,L18&lt;=$B$5),TRUNC(L18*$C$5/100-$D$5,2),IF(AND(L18&gt;=$A$6,L18&lt;=$B$6),TRUNC(L18*$C$6/100-$D$6,2),IF(AND(L18&gt;=$A$7,L18&lt;=$B$7),TRUNC(L18*$C$7/100-$D$7,2),IF(L18&gt;=$A$8,TRUNC(L18*$C$8/100-$D$8,2),""))))),"")</f>
         <v/>
       </c>
-      <c r="O21" s="62" t="s">
+      <c r="O21" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="63"/>
+      <c r="P21" s="54"/>
       <c r="Q21" s="7">
-        <f>J13-M13-L20</f>
+        <f>IF(L5=0,J13-M13-L20,"")</f>
         <v>0</v>
       </c>
       <c r="R21" s="4"/>
       <c r="S21" s="31"/>
       <c r="W21" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
+      <c r="H22" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
       <c r="S22" s="31"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G24" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
+      <c r="G24" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ne93lTNlux/GNdJtUDTCCHs+NMKApHMevswbqxRYNhrE+fHWJH2bY6PQ/+lQUfM1airh71JAOSGkiDXhxcIygw==" saltValue="RLbnMbsAQuClLb2DOg63vA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="30">
-    <mergeCell ref="G24:S24"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="J1:O2"/>
-    <mergeCell ref="H3:R3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A10:C10"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d/RCvQZb9Uj29QrLWX7DLlP2JdMELzfFtMBRKp9HAkg7t/FSwHGIcDtPW2YUxRM1S8/3G6Or7QCqnwWvirX52A==" saltValue="f07BlyTVKsmVZEZAvLZFDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="31">
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="T16:U17"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="W8:W9"/>
@@ -3067,11 +3106,21 @@
     <mergeCell ref="W5:W6"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="H11:R11"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="T16:U17"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="J1:O2"/>
+    <mergeCell ref="H3:R3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="G24:S24"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="H22:R22"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.31496062992125984" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3085,7 +3134,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3097,13 +3146,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>50</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3111,16 +3160,27 @@
         <v>46043</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="69">
+        <v>46046</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C3" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="25" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
@@ -3143,6 +3203,7 @@
       <c r="C11" s="34"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Simulador.xlsx
+++ b/Simulador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jrod\Desktop\Documentos office e PDFs\Planilhas Excel\Cálculo do IR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AE98308-E5ED-417F-B6D7-B3D237A7E62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F274D485-ECFE-4A4E-BE6D-F825AB29B628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulador  IR 2024" sheetId="1" state="hidden" r:id="rId1"/>
@@ -245,36 +245,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="I21" authorId="0" shapeId="0" xr:uid="{354C0ED8-C217-4CD8-8B00-90DD09351D44}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jrod:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Somente se os dados de remuneração e contribuição do servidor estiverem zerados. </t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>Tabela progressiva do IR - Ano 2024</t>
   </si>
@@ -369,18 +345,9 @@
     <t>Desconto simplificado</t>
   </si>
   <si>
-    <t>Valor do IR (apenas para colaborar externo):</t>
-  </si>
-  <si>
-    <t>Valor do IR (para servidores):</t>
-  </si>
-  <si>
     <t>Simulador IR do contracheque do servidor (preencher somente as células azuis):</t>
   </si>
   <si>
-    <t>Líquido a receber:</t>
-  </si>
-  <si>
     <t>Rendimentos Tributáveis</t>
   </si>
   <si>
@@ -441,7 +408,10 @@
     <t>Algumas validações adicionais nas fórmulas das células M21 e Q21</t>
   </si>
   <si>
-    <t>Revisão 13.2026.2 - 24/01/2026</t>
+    <t>Campo de referência para informação do nome do servidor/colaborador - G24</t>
+  </si>
+  <si>
+    <t>Adequação da planilha para a nova metodologia de cálculo do IR para 2026</t>
   </si>
   <si>
     <r>
@@ -464,14 +434,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(digite o nome do servidor/colaborador e o mês de referência)</t>
+      <t>(digite o nome do servidor e o mês de referência)</t>
     </r>
   </si>
   <si>
-    <t>Campo de referência para informação do nome do servidor/colaborador - G24</t>
-  </si>
-  <si>
-    <t>Adequação da planilha para a nova metodologia de cálculo do IR para 2026</t>
+    <t>Revisão 13.2026.3 - 30/01/2026</t>
+  </si>
+  <si>
+    <t>13.2026.3</t>
+  </si>
+  <si>
+    <t>Retirei o cálculo do valor para colaborador, pois envolve outras análises</t>
   </si>
 </sst>
 </file>
@@ -481,7 +454,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,14 +532,6 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="0.79998168889431442"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF002060"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -767,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -795,7 +760,6 @@
     <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,6 +791,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -860,79 +827,68 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1343,59 +1299,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Conector de Seta Reta 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82487BC-7945-4639-85D8-60BD80493A9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7134225" y="3933825"/>
-          <a:ext cx="609600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2418,43 +2321,43 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
       <c r="D1" s="37"/>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="A2" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="10"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
       <c r="V2" s="35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W2" s="36"/>
       <c r="X2" s="37"/>
@@ -2473,26 +2376,26 @@
         <v>4</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="31"/>
-      <c r="V3" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="64"/>
-      <c r="X3" s="65"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="30"/>
+      <c r="V3" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="55"/>
+      <c r="X3" s="56"/>
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -2506,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="G4" s="31"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -2518,15 +2421,15 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="31"/>
-      <c r="V4" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="W4" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="X4" s="29" t="s">
-        <v>44</v>
+      <c r="S4" s="30"/>
+      <c r="V4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="28" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -2543,7 +2446,7 @@
         <v>182.16</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="G5" s="31"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="4"/>
       <c r="I5" s="38" t="s">
         <v>7</v>
@@ -2559,18 +2462,18 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="31"/>
-      <c r="U5" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5" s="66">
-        <v>0</v>
-      </c>
-      <c r="W5" s="66" t="e">
+      <c r="S5" s="30"/>
+      <c r="U5" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="46">
+        <v>0</v>
+      </c>
+      <c r="W5" s="46" t="e">
         <f>$X$5-$W$8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="X5" s="66" t="e">
+      <c r="X5" s="46" t="e">
         <f>IF(L8&lt;=$B$4,0,IF(AND(L8&gt;=$A$5,L8&lt;=$B$5),TRUNC(L8*$C$5/100-$D$5,2),IF(AND(L8&gt;=$A$6,L8&lt;=$B$6),TRUNC(L8*$C$6/100-$D$6,2),IF(AND(L8&gt;=$A$7,L8&lt;=$B$7),TRUNC(L8*$C$7/100-$D$7,2),IF(L8&gt;=$A$8,TRUNC(L8*$C$8/100-$D$8,2),"")))))</f>
         <v>#VALUE!</v>
       </c>
@@ -2589,7 +2492,7 @@
         <v>394.16</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="G6" s="31"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
         <v>8</v>
@@ -2604,17 +2507,17 @@
         <v>27</v>
       </c>
       <c r="O6" s="39"/>
-      <c r="P6" s="52"/>
+      <c r="P6" s="61"/>
       <c r="Q6" s="7">
         <f>IF(L6+P7&lt;C11,C11,L6+P7)</f>
         <v>607.20000000000005</v>
       </c>
       <c r="R6" s="4"/>
-      <c r="S6" s="31"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
+      <c r="S6" s="30"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -2630,7 +2533,7 @@
         <v>675.49</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="G7" s="31"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
         <v>9</v>
@@ -2651,9 +2554,9 @@
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="31"/>
-      <c r="W7" s="24" t="s">
-        <v>42</v>
+      <c r="S7" s="30"/>
+      <c r="W7" s="23" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -2668,7 +2571,7 @@
         <v>908.73</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="G8" s="31"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
         <v>11</v>
@@ -2685,15 +2588,15 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="31"/>
-      <c r="W8" s="59">
+      <c r="S8" s="30"/>
+      <c r="W8" s="47">
         <f>IF(AND(L5&gt;5000,L5&lt;=7350),978.62-(0.133145*L5),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E9" s="10"/>
-      <c r="G9" s="31"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
         <v>6</v>
@@ -2712,9 +2615,9 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="31"/>
+      <c r="S9" s="30"/>
       <c r="U9" s="12"/>
-      <c r="W9" s="59"/>
+      <c r="W9" s="47"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
@@ -2726,7 +2629,7 @@
         <v>189.59</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="G10" s="31"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
         <v>20</v>
@@ -2745,9 +2648,9 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="31"/>
-      <c r="W10" s="30" t="s">
-        <v>43</v>
+      <c r="S10" s="30"/>
+      <c r="W10" s="29" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -2758,24 +2661,24 @@
       <c r="C11" s="2">
         <v>607.20000000000005</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="56" t="s">
+      <c r="G11" s="30"/>
+      <c r="H11" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="31"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="30"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G12" s="31"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="4"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2787,13 +2690,13 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="31"/>
+      <c r="S12" s="30"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="31"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>12</v>
@@ -2822,15 +2725,15 @@
         <v>0</v>
       </c>
       <c r="R13" s="4"/>
-      <c r="S13" s="31"/>
-      <c r="V13" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="W13" s="61"/>
-      <c r="X13" s="62"/>
+      <c r="S13" s="30"/>
+      <c r="V13" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="W13" s="52"/>
+      <c r="X13" s="53"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G14" s="31"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -2842,15 +2745,15 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="31"/>
-      <c r="V14" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="W14" s="64"/>
-      <c r="X14" s="65"/>
+      <c r="S14" s="30"/>
+      <c r="V14" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="W14" s="55"/>
+      <c r="X14" s="56"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G15" s="31"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="4"/>
       <c r="I15" s="39" t="s">
         <v>13</v>
@@ -2867,19 +2770,19 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="31"/>
-      <c r="V15" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="W15" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="X15" s="29" t="s">
-        <v>44</v>
+      <c r="S15" s="30"/>
+      <c r="V15" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="W15" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="X15" s="28" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G16" s="31"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="4"/>
       <c r="I16" s="38" t="s">
         <v>8</v>
@@ -2896,25 +2799,25 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="U16" s="67"/>
-      <c r="V16" s="66">
-        <v>0</v>
-      </c>
-      <c r="W16" s="66" t="e">
+      <c r="S16" s="30"/>
+      <c r="T16" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="U16" s="49"/>
+      <c r="V16" s="46">
+        <v>0</v>
+      </c>
+      <c r="W16" s="46" t="e">
         <f>$X$16-W19</f>
         <v>#VALUE!</v>
       </c>
-      <c r="X16" s="66" t="str">
+      <c r="X16" s="46" t="str">
         <f>IF(AND(J13&lt;&gt;"",J13&lt;&gt;0),IF(L18&lt;=$B$4,0,IF(AND(L18&gt;=$A$5,L18&lt;=$B$5),TRUNC(L18*$C$5/100-$D$5,2),IF(AND(L18&gt;=$A$6,L18&lt;=$B$6),TRUNC(L18*$C$6/100-$D$6,2),IF(AND(L18&gt;=$A$7,L18&lt;=$B$7),TRUNC(L18*$C$7/100-$D$7,2),IF(L18&gt;=$A$8,TRUNC(L18*$C$8/100-$D$8,2),"")))))-J9,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G17" s="31"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
         <v>9</v>
@@ -2936,15 +2839,15 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G18" s="31"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
         <v>11</v>
@@ -2961,13 +2864,13 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="31"/>
-      <c r="W18" s="24" t="s">
-        <v>42</v>
+      <c r="S18" s="30"/>
+      <c r="W18" s="23" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="31"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4" t="s">
         <v>17</v>
@@ -2986,19 +2889,19 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="31"/>
-      <c r="W19" s="59">
+      <c r="S19" s="30"/>
+      <c r="W19" s="47">
         <f>IF(AND(L15&gt;5000,L15&lt;=7350),978.62-(0.133145*L15),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G20" s="31"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="47"/>
+      <c r="I20" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="64"/>
       <c r="K20" s="4"/>
       <c r="L20" s="7">
         <f>IF(AND(L5&lt;&gt;0,L6&lt;&gt;0),IF(L15&lt;=5000,V16,IF(AND(L15&gt;5000,L15&lt;=7350),W16,X16)),0)</f>
@@ -3012,89 +2915,83 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="31"/>
+      <c r="S20" s="30"/>
       <c r="U20" s="12"/>
-      <c r="W20" s="59"/>
+      <c r="W20" s="47"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
       <c r="L21" s="20"/>
-      <c r="M21" s="21">
-        <f>IF(L5=0,IF(L15&lt;=5000,V16,IF(AND(L15&gt;5000,L15&lt;=7350),W16,X16)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="23" t="str">
-        <f>IF(AND(J13&lt;&gt;"",J13&lt;&gt;0),IF(L18&lt;=$B$4,0,IF(AND(L18&gt;=$A$5,L18&lt;=$B$5),TRUNC(L18*$C$5/100-$D$5,2),IF(AND(L18&gt;=$A$6,L18&lt;=$B$6),TRUNC(L18*$C$6/100-$D$6,2),IF(AND(L18&gt;=$A$7,L18&lt;=$B$7),TRUNC(L18*$C$7/100-$D$7,2),IF(L18&gt;=$A$8,TRUNC(L18*$C$8/100-$D$8,2),""))))),"")</f>
-        <v/>
-      </c>
-      <c r="O21" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="7">
-        <f>IF(L5=0,J13-M13-L20,"")</f>
-        <v>0</v>
-      </c>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="31"/>
-      <c r="W21" s="30" t="s">
-        <v>43</v>
+      <c r="S21" s="30"/>
+      <c r="W21" s="29" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G22" s="31"/>
-      <c r="H22" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="31"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="30"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="L23" s="22"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G24" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
+      <c r="G24" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d/RCvQZb9Uj29QrLWX7DLlP2JdMELzfFtMBRKp9HAkg7t/FSwHGIcDtPW2YUxRM1S8/3G6Or7QCqnwWvirX52A==" saltValue="f07BlyTVKsmVZEZAvLZFDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="31">
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="T16:U17"/>
+  <mergeCells count="29">
+    <mergeCell ref="G24:S24"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="H22:R22"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="J1:O2"/>
+    <mergeCell ref="H3:R3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="W8:W9"/>
@@ -3106,21 +3003,11 @@
     <mergeCell ref="W5:W6"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="H11:R11"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="J1:O2"/>
-    <mergeCell ref="H3:R3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="G24:S24"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="H22:R22"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="T16:U17"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.31496062992125984" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3134,76 +3021,86 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="79.28515625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="79.28515625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="32">
+        <v>46043</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="C2" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="34">
+        <v>46046</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
-        <v>46043</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="C3" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="69">
-        <v>46046</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="25" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
+        <v>46052</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>